--- a/excel/collective/zestawy_dla_uczniow/zestaw_032.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_032.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
   <si>
     <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 1</t>
   </si>
@@ -61,460 +61,511 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Zawadzka</t>
-  </si>
-  <si>
-    <t>Anna Czarnecka</t>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Anna Urbaniak</t>
+  </si>
+  <si>
+    <t>Jan Dąbrowski</t>
+  </si>
+  <si>
+    <t>Emilia Malinowska</t>
   </si>
   <si>
     <t>Natalia Rogalska</t>
   </si>
   <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
+  </si>
+  <si>
+    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,90</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>8,60</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,30</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>4,50</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>6,80</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>12,60</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>18,48</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>30,57</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>6,38</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>6,82</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>8,48</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>25,44</t>
+  </si>
+  <si>
+    <t>1,09</t>
+  </si>
+  <si>
+    <t>18,01</t>
+  </si>
+  <si>
+    <t>7,78</t>
+  </si>
+  <si>
+    <t>11,30</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>18,55</t>
+  </si>
+  <si>
+    <t>27,87</t>
+  </si>
+  <si>
+    <t>26,18</t>
+  </si>
+  <si>
+    <t>7,19</t>
+  </si>
+  <si>
+    <t>4,20</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy pasek?</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>20.04.1996</t>
+  </si>
+  <si>
+    <t>7 872,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Zieliński</t>
+  </si>
+  <si>
+    <t>01.11.1986</t>
+  </si>
+  <si>
+    <t>10 042,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Czarnecka</t>
+  </si>
+  <si>
+    <t>22.08.1984</t>
+  </si>
+  <si>
+    <t>3 832,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Jaworska</t>
+  </si>
+  <si>
+    <t>02.02.1975</t>
+  </si>
+  <si>
+    <t>12 276,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Maciejewska</t>
+  </si>
+  <si>
+    <t>08.05.1982</t>
+  </si>
+  <si>
+    <t>2 638,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>06.01.1978</t>
+  </si>
+  <si>
+    <t>13 934,00 zł</t>
+  </si>
+  <si>
     <t>Adam Grabowski</t>
   </si>
   <si>
-    <t>Emilia Wilk</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>9,30</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,70</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>16,60</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>4,50</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>3,61</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>12,49</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>22,50</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>25,13</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>16,57</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>24,04</t>
-  </si>
-  <si>
-    <t>18,87</t>
-  </si>
-  <si>
-    <t>9,28</t>
-  </si>
-  <si>
-    <t>18,83</t>
-  </si>
-  <si>
-    <t>10,06</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>23,24</t>
-  </si>
-  <si>
-    <t>14,51</t>
-  </si>
-  <si>
-    <t>2,74</t>
-  </si>
-  <si>
-    <t>16,49</t>
-  </si>
-  <si>
-    <t>25,51</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Zawadzka</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Krawczyk</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Lena Jaworska</t>
-  </si>
-  <si>
-    <t>04.06.1995</t>
-  </si>
-  <si>
-    <t>9 312,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Król</t>
-  </si>
-  <si>
-    <t>12.07.1983</t>
-  </si>
-  <si>
-    <t>12 489,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Wójcik</t>
-  </si>
-  <si>
-    <t>14.04.1994</t>
-  </si>
-  <si>
-    <t>14 613,00 zł</t>
+    <t>25.02.2000</t>
+  </si>
+  <si>
+    <t>3 956,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Lis</t>
+  </si>
+  <si>
+    <t>08.07.1988</t>
+  </si>
+  <si>
+    <t>6 955,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>28.07.1998</t>
+  </si>
+  <si>
+    <t>13 965,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Krawczyk</t>
+  </si>
+  <si>
+    <t>23.10.2004</t>
+  </si>
+  <si>
+    <t>9 201,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Wiśniewski</t>
+  </si>
+  <si>
+    <t>19.04.1975</t>
+  </si>
+  <si>
+    <t>3 545,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Borkowska</t>
+  </si>
+  <si>
+    <t>26.10.1999</t>
+  </si>
+  <si>
+    <t>9 428,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Dąbrowski</t>
+  </si>
+  <si>
+    <t>09.09.1999</t>
+  </si>
+  <si>
+    <t>7 198,00 zł</t>
   </si>
   <si>
     <t>Szymon Kowalczyk</t>
   </si>
   <si>
-    <t>13.07.2004</t>
-  </si>
-  <si>
-    <t>11 443,00 zł</t>
-  </si>
-  <si>
-    <t>05.10.1980</t>
-  </si>
-  <si>
-    <t>5 770,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Kubiak</t>
-  </si>
-  <si>
-    <t>17.02.1990</t>
-  </si>
-  <si>
-    <t>7 570,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Sikorska</t>
-  </si>
-  <si>
-    <t>08.02.1979</t>
-  </si>
-  <si>
-    <t>12 646,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>06.10.2002</t>
-  </si>
-  <si>
-    <t>7 960,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Dąbrowski</t>
-  </si>
-  <si>
-    <t>23.08.1978</t>
-  </si>
-  <si>
-    <t>5 202,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Borkowska</t>
-  </si>
-  <si>
-    <t>27.01.2004</t>
-  </si>
-  <si>
-    <t>8 086,00 zł</t>
-  </si>
-  <si>
-    <t>Natalia Bednarska</t>
-  </si>
-  <si>
-    <t>11.12.1997</t>
-  </si>
-  <si>
-    <t>2 612,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Woźniak</t>
-  </si>
-  <si>
-    <t>27.05.1998</t>
-  </si>
-  <si>
-    <t>6 499,00 zł</t>
+    <t>01.01.1986</t>
+  </si>
+  <si>
+    <t>2 893,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Kowalski</t>
+  </si>
+  <si>
+    <t>01.12.1986</t>
+  </si>
+  <si>
+    <t>7 842,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Jaworska</t>
+  </si>
+  <si>
+    <t>18.03.2005</t>
+  </si>
+  <si>
+    <t>9 220,00 zł</t>
+  </si>
+  <si>
+    <t>06.09.1977</t>
+  </si>
+  <si>
+    <t>14 819,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,307 +637,343 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 371,00 zł</t>
+  </si>
+  <si>
+    <t>1 769,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>974,00 zł</t>
+  </si>
+  <si>
+    <t>1 315,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>864,00 zł</t>
+  </si>
+  <si>
+    <t>1 045,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>1 059,00 zł</t>
+  </si>
+  <si>
+    <t>1 186,00 zł</t>
+  </si>
+  <si>
+    <t>1 097,00 zł</t>
+  </si>
+  <si>
+    <t>1 294,00 zł</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 090,00 zł</t>
+  </si>
+  <si>
+    <t>1 341,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>1 291,00 zł</t>
+  </si>
+  <si>
+    <t>1 510,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 036,00 zł</t>
+  </si>
+  <si>
+    <t>1 243,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 033,00 zł</t>
+  </si>
+  <si>
+    <t>1 147,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 316,00 zł</t>
+  </si>
+  <si>
+    <t>1 513,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 178,00 zł</t>
+  </si>
+  <si>
+    <t>1 461,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>682,00 zł</t>
+  </si>
+  <si>
+    <t>866,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 397,00 zł</t>
+  </si>
+  <si>
+    <t>1 621,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>735,00 zł</t>
+  </si>
+  <si>
+    <t>809,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 200,00 zł</t>
+  </si>
+  <si>
+    <t>1 404,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 306,00 zł</t>
+  </si>
+  <si>
+    <t>1 567,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 126,00 zł</t>
+  </si>
+  <si>
+    <t>1 295,00 zł</t>
+  </si>
+  <si>
+    <t>1 288,00 zł</t>
+  </si>
+  <si>
+    <t>1 558,00 zł</t>
+  </si>
+  <si>
+    <t>1 364,00 zł</t>
+  </si>
+  <si>
+    <t>1 637,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 270,00 zł</t>
+  </si>
+  <si>
+    <t>1 511,00 zł</t>
+  </si>
+  <si>
+    <t>1 289,00 zł</t>
+  </si>
+  <si>
+    <t>1 805,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>1 343,00 zł</t>
+  </si>
+  <si>
+    <t>1 531,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>622,00 zł</t>
+  </si>
+  <si>
+    <t>740,00 zł</t>
+  </si>
+  <si>
+    <t>590,00 zł</t>
+  </si>
+  <si>
+    <t>708,00 zł</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
+    <t>1 734,00 zł</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 449,00 zł</t>
-  </si>
-  <si>
-    <t>2 029,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>1 912,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 688,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>1 435,00 zł</t>
-  </si>
-  <si>
-    <t>1 880,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>774,00 zł</t>
-  </si>
-  <si>
-    <t>1 068,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 069,00 zł</t>
-  </si>
-  <si>
-    <t>1 272,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 678,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>870,00 zł</t>
-  </si>
-  <si>
-    <t>1 122,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>1 312,00 zł</t>
-  </si>
-  <si>
-    <t>1 522,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 170,00 zł</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
+    <t>1 091,00 zł</t>
+  </si>
+  <si>
+    <t>1 407,00 zł</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>875,00 zł</t>
+  </si>
+  <si>
+    <t>1 199,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>539,00 zł</t>
+  </si>
+  <si>
+    <t>701,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 286,00 zł</t>
+  </si>
+  <si>
+    <t>1 646,00 zł</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>604,00 zł</t>
+  </si>
+  <si>
+    <t>755,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 266,00 zł</t>
-  </si>
-  <si>
-    <t>1 557,00 zł</t>
-  </si>
-  <si>
-    <t>507,00 zł</t>
-  </si>
-  <si>
-    <t>644,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>1 218,00 zł</t>
-  </si>
-  <si>
-    <t>1 705,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 459,00 zł</t>
-  </si>
-  <si>
-    <t>1 882,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>1 031,00 zł</t>
-  </si>
-  <si>
-    <t>1 299,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 056,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>716,00 zł</t>
-  </si>
-  <si>
-    <t>845,00 zł</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>731,00 zł</t>
-  </si>
-  <si>
-    <t>892,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 402,00 zł</t>
-  </si>
-  <si>
-    <t>1 795,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>813,00 zł</t>
-  </si>
-  <si>
-    <t>1 138,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>1 048,00 zł</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>950,00 zł</t>
-  </si>
-  <si>
-    <t>1 302,00 zł</t>
-  </si>
-  <si>
-    <t>1 471,00 zł</t>
-  </si>
-  <si>
-    <t>1 971,00 zł</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>875,00 zł</t>
-  </si>
-  <si>
-    <t>1 015,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>1 616,00 zł</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 251,00 zł</t>
-  </si>
-  <si>
-    <t>1 499,00 zł</t>
-  </si>
-  <si>
-    <t>1 874,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1443,19 +1530,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3">
         <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1464,19 +1551,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
       </c>
       <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
         <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1488,16 +1575,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1506,19 +1593,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1527,19 +1614,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1551,16 +1638,16 @@
         <v>6</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1569,19 +1656,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="F23" s="3">
         <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>6</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1590,7 +1677,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -1599,10 +1686,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1611,19 +1698,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1638,13 +1725,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1653,19 +1740,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1674,13 +1761,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
         <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
@@ -1808,7 +1895,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1823,7 +1910,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1838,7 +1925,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1853,7 +1940,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1868,7 +1955,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1883,7 +1970,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2000,7 +2087,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2012,7 +2099,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2024,7 +2111,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2036,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2048,7 +2135,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2096,7 +2183,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2108,7 +2195,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2120,7 +2207,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2132,7 +2219,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2144,7 +2231,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2192,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2204,7 +2291,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2216,7 +2303,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2228,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2240,7 +2327,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2383,25 +2470,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
       <c r="G12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2415,25 +2502,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
       <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2447,25 +2534,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2479,25 +2566,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
       </c>
       <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2514,22 +2601,22 @@
         <v>6</v>
       </c>
       <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2540,28 +2627,28 @@
         <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2569,7 +2656,7 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>118</v>
@@ -2578,22 +2665,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>6</v>
+      </c>
+      <c r="I18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
-        <v>6</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2601,38 +2688,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
         <v>5</v>
       </c>
       <c r="H19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2648,7 +2735,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -2679,10 +2766,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2694,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2704,199 +2791,254 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>165</v>
+      <c r="A25" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>169</v>
+      <c r="A26" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>169</v>
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2914,10 +3056,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2933,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2943,75 +3085,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3019,22 +3161,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3042,22 +3184,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3065,22 +3207,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3088,22 +3230,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3111,22 +3253,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3134,22 +3276,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3157,22 +3299,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>221</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3180,22 +3322,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3203,22 +3345,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3226,22 +3368,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3249,22 +3391,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3272,22 +3414,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3295,22 +3437,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3318,22 +3460,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3341,22 +3483,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3367,19 +3509,19 @@
         <v>217</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3387,22 +3529,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3410,22 +3552,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3433,22 +3575,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3456,22 +3598,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3479,22 +3621,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3502,22 +3644,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3525,22 +3667,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3548,22 +3690,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3571,22 +3713,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3594,22 +3736,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3620,19 +3762,19 @@
         <v>217</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>208</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3640,67 +3782,113 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>169</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>169</v>
+      <c r="A48" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>169</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_032.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_032.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,90</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>8,60</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,30</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,50</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,80</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>12,60</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>18,48</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>30,57</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>6,38</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,82</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>8,48</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,44</t>
-  </si>
-  <si>
-    <t>1,09</t>
-  </si>
-  <si>
-    <t>18,01</t>
-  </si>
-  <si>
-    <t>7,78</t>
-  </si>
-  <si>
-    <t>11,30</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>18,55</t>
-  </si>
-  <si>
-    <t>27,87</t>
-  </si>
-  <si>
-    <t>26,18</t>
-  </si>
-  <si>
-    <t>7,19</t>
-  </si>
-  <si>
-    <t>4,20</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -424,150 +346,99 @@
     <t>20.04.1996</t>
   </si>
   <si>
-    <t>7 872,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Zieliński</t>
   </si>
   <si>
     <t>01.11.1986</t>
   </si>
   <si>
-    <t>10 042,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Czarnecka</t>
   </si>
   <si>
     <t>22.08.1984</t>
   </si>
   <si>
-    <t>3 832,00 zł</t>
-  </si>
-  <si>
     <t>Maja Jaworska</t>
   </si>
   <si>
     <t>02.02.1975</t>
   </si>
   <si>
-    <t>12 276,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Maciejewska</t>
   </si>
   <si>
     <t>08.05.1982</t>
   </si>
   <si>
-    <t>2 638,00 zł</t>
-  </si>
-  <si>
     <t>Anna Kaźmierczak</t>
   </si>
   <si>
     <t>06.01.1978</t>
   </si>
   <si>
-    <t>13 934,00 zł</t>
-  </si>
-  <si>
     <t>Adam Grabowski</t>
   </si>
   <si>
     <t>25.02.2000</t>
   </si>
   <si>
-    <t>3 956,00 zł</t>
-  </si>
-  <si>
     <t>Lena Lis</t>
   </si>
   <si>
     <t>08.07.1988</t>
   </si>
   <si>
-    <t>6 955,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Maciejewska</t>
   </si>
   <si>
     <t>28.07.1998</t>
   </si>
   <si>
-    <t>13 965,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Krawczyk</t>
   </si>
   <si>
     <t>23.10.2004</t>
   </si>
   <si>
-    <t>9 201,00 zł</t>
-  </si>
-  <si>
     <t>Jan Wiśniewski</t>
   </si>
   <si>
     <t>19.04.1975</t>
   </si>
   <si>
-    <t>3 545,00 zł</t>
-  </si>
-  <si>
     <t>Lena Borkowska</t>
   </si>
   <si>
     <t>26.10.1999</t>
   </si>
   <si>
-    <t>9 428,00 zł</t>
-  </si>
-  <si>
     <t>Filip Dąbrowski</t>
   </si>
   <si>
     <t>09.09.1999</t>
   </si>
   <si>
-    <t>7 198,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kowalczyk</t>
   </si>
   <si>
     <t>01.01.1986</t>
   </si>
   <si>
-    <t>2 893,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Kowalski</t>
   </si>
   <si>
     <t>01.12.1986</t>
   </si>
   <si>
-    <t>7 842,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Jaworska</t>
   </si>
   <si>
     <t>18.03.2005</t>
   </si>
   <si>
-    <t>9 220,00 zł</t>
-  </si>
-  <si>
     <t>06.09.1977</t>
   </si>
   <si>
-    <t>14 819,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -580,9 +451,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -643,12 +511,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
-    <t>1 769,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -661,12 +523,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>974,00 zł</t>
-  </si>
-  <si>
-    <t>1 315,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -679,12 +535,6 @@
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>864,00 zł</t>
-  </si>
-  <si>
-    <t>1 045,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -697,27 +547,9 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
-    <t>1 186,00 zł</t>
-  </si>
-  <si>
-    <t>1 097,00 zł</t>
-  </si>
-  <si>
-    <t>1 294,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 090,00 zł</t>
-  </si>
-  <si>
-    <t>1 341,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -727,48 +559,24 @@
     <t>kwiecień</t>
   </si>
   <si>
-    <t>1 291,00 zł</t>
-  </si>
-  <si>
-    <t>1 510,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 036,00 zł</t>
-  </si>
-  <si>
-    <t>1 243,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 033,00 zł</t>
-  </si>
-  <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 513,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -778,12 +586,6 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 178,00 zł</t>
-  </si>
-  <si>
-    <t>1 461,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -793,12 +595,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>682,00 zł</t>
-  </si>
-  <si>
-    <t>866,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -808,72 +604,30 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 397,00 zł</t>
-  </si>
-  <si>
-    <t>1 621,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>735,00 zł</t>
-  </si>
-  <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 306,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 126,00 zł</t>
-  </si>
-  <si>
-    <t>1 295,00 zł</t>
-  </si>
-  <si>
-    <t>1 288,00 zł</t>
-  </si>
-  <si>
-    <t>1 558,00 zł</t>
-  </si>
-  <si>
-    <t>1 364,00 zł</t>
-  </si>
-  <si>
-    <t>1 637,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -883,94 +637,28 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 270,00 zł</t>
-  </si>
-  <si>
-    <t>1 511,00 zł</t>
-  </si>
-  <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
-    <t>1 805,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
-    <t>1 531,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>622,00 zł</t>
-  </si>
-  <si>
-    <t>740,00 zł</t>
-  </si>
-  <si>
-    <t>590,00 zł</t>
-  </si>
-  <si>
-    <t>708,00 zł</t>
-  </si>
-  <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
-    <t>1 734,00 zł</t>
-  </si>
-  <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 091,00 zł</t>
-  </si>
-  <si>
-    <t>1 407,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>875,00 zł</t>
-  </si>
-  <si>
-    <t>1 199,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>539,00 zł</t>
-  </si>
-  <si>
-    <t>701,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 646,00 zł</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>604,00 zł</t>
-  </si>
-  <si>
-    <t>755,00 zł</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
@@ -995,7 +683,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1052,14 +742,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1070,8 +760,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1102,30 +792,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,7 +1119,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1503,25 +1194,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1544,7 +1235,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1565,7 +1256,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1586,7 +1277,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1607,7 +1298,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1628,7 +1319,7 @@
       <c r="F21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1649,7 +1340,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1670,7 +1361,7 @@
       <c r="F23" s="3">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1691,7 +1382,7 @@
       <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1712,7 +1403,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1733,7 +1424,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1754,7 +1445,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1775,27 +1466,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1829,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1849,7 +1530,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1859,29 +1540,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1889,99 +1570,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4.9</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8.6</v>
       </c>
       <c r="D14" s="3">
         <v>8</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.3</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.5</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6.8</v>
       </c>
       <c r="D17" s="3">
         <v>9</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12.6</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2014,7 +1695,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2039,113 +1720,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>18.48</v>
       </c>
       <c r="C15" s="3">
         <v>33</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30.57</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6.38</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.82</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>8.48</v>
       </c>
       <c r="C19" s="3">
         <v>44</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2154,94 +1835,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>25.44</v>
       </c>
       <c r="C24" s="3">
         <v>46</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1.09</v>
       </c>
       <c r="C25" s="3">
         <v>23</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18.010000000000002</v>
       </c>
       <c r="C26" s="3">
         <v>45</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7.78</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>11.3</v>
       </c>
       <c r="C28" s="3">
         <v>9</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2250,98 +1931,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>18.55</v>
       </c>
       <c r="C33" s="3">
         <v>26</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>27.87</v>
       </c>
       <c r="C34" s="3">
         <v>27</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>26.18</v>
       </c>
       <c r="C35" s="3">
         <v>35</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7.19</v>
       </c>
       <c r="C36" s="3">
         <v>22</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4.2</v>
       </c>
       <c r="C37" s="3">
         <v>49</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2364,7 +2045,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2384,90 +2065,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2490,16 +2171,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2522,16 +2203,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2554,16 +2235,16 @@
       <c r="J14" s="3">
         <v>2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2586,16 +2267,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
@@ -2618,16 +2299,16 @@
       <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -2650,16 +2331,16 @@
       <c r="J17" s="3">
         <v>6</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
@@ -2682,16 +2363,16 @@
       <c r="J18" s="3">
         <v>4</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -2714,40 +2395,40 @@
       <c r="J19" s="3">
         <v>4</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2780,266 +2461,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
+      <c r="A1" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="7">
+        <v>7872</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10042</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3832</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12276</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2638</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13934</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3956</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6955</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13965</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="C20" s="7">
+        <v>9201</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3545</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9428</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>170</v>
+        <v>131</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7198</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>173</v>
+        <v>133</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2893</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>176</v>
+        <v>135</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7842</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>179</v>
+        <v>137</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9220</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="C27" s="7">
+        <v>14819</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>182</v>
+      <c r="A30" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3074,86 +2749,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>187</v>
+      <c r="A1" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>204</v>
+      <c r="A15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3161,22 +2836,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1371</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1769</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3184,22 +2859,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
+      </c>
+      <c r="D17" s="7">
+        <v>974</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1315</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3207,22 +2882,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
+      </c>
+      <c r="D18" s="7">
+        <v>864</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1045</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3230,22 +2905,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>226</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1059</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1186</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3253,22 +2928,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>228</v>
+        <v>166</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1097</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1294</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3276,22 +2951,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1090</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1341</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3299,22 +2974,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>236</v>
+        <v>162</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1291</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1510</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3322,22 +2997,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1036</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1243</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3345,22 +3020,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1033</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1147</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3368,22 +3043,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>248</v>
+        <v>184</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1316</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1513</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3391,22 +3066,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1178</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1461</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3414,22 +3089,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="7">
+        <v>682</v>
+      </c>
+      <c r="E27" s="7">
+        <v>866</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3437,22 +3112,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1397</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1621</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3460,22 +3135,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
+      </c>
+      <c r="D29" s="7">
+        <v>735</v>
+      </c>
+      <c r="E29" s="7">
+        <v>809</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3483,22 +3158,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1404</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3506,22 +3181,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>275</v>
+        <v>199</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1306</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1567</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3529,22 +3204,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>279</v>
+        <v>166</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1126</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1295</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3552,22 +3227,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>281</v>
+        <v>174</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1288</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1558</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3575,22 +3250,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>283</v>
+        <v>174</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1364</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1637</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3598,22 +3273,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>288</v>
+        <v>204</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1270</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1511</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3621,22 +3296,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1289</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1805</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3644,22 +3319,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1343</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1531</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3667,22 +3342,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>297</v>
+        <v>190</v>
+      </c>
+      <c r="D38" s="7">
+        <v>622</v>
+      </c>
+      <c r="E38" s="7">
+        <v>740</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3690,22 +3365,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>299</v>
+        <v>190</v>
+      </c>
+      <c r="D39" s="7">
+        <v>590</v>
+      </c>
+      <c r="E39" s="7">
+        <v>708</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3713,22 +3388,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>301</v>
+        <v>170</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1365</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1734</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3736,22 +3411,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>304</v>
+        <v>208</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1091</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1407</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3759,22 +3434,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>307</v>
+        <v>209</v>
+      </c>
+      <c r="D42" s="7">
+        <v>875</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1199</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3782,22 +3457,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>310</v>
+        <v>193</v>
+      </c>
+      <c r="D43" s="7">
+        <v>539</v>
+      </c>
+      <c r="E43" s="7">
+        <v>701</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3805,22 +3480,22 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>313</v>
+        <v>211</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1286</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1646</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3828,68 +3503,58 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>316</v>
+        <v>212</v>
+      </c>
+      <c r="D45" s="7">
+        <v>604</v>
+      </c>
+      <c r="E45" s="7">
+        <v>755</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="13" t="s">
-        <v>182</v>
+      <c r="A48" s="17" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>318</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>320</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>322</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>186</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B53" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_032.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_032.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
   <si>
     <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 1</t>
   </si>
@@ -61,382 +62,313 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Adam Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>Jan Dąbrowski</t>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>Lena Jaworska</t>
+  </si>
+  <si>
+    <t>Amelia Kubiak</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Mikołaj</t>
+  </si>
+  <si>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
   </si>
   <si>
     <t>Emilia Malinowska</t>
   </si>
   <si>
-    <t>Natalia Rogalska</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 32 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Grabowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Adam Lewandowski</t>
-  </si>
-  <si>
-    <t>20.04.1996</t>
-  </si>
-  <si>
-    <t>Kacper Zieliński</t>
-  </si>
-  <si>
-    <t>01.11.1986</t>
-  </si>
-  <si>
-    <t>Oliwia Czarnecka</t>
-  </si>
-  <si>
-    <t>22.08.1984</t>
-  </si>
-  <si>
-    <t>Maja Jaworska</t>
-  </si>
-  <si>
-    <t>02.02.1975</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>08.05.1982</t>
-  </si>
-  <si>
-    <t>Anna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>06.01.1978</t>
-  </si>
-  <si>
-    <t>Adam Grabowski</t>
-  </si>
-  <si>
-    <t>25.02.2000</t>
-  </si>
-  <si>
-    <t>Lena Lis</t>
-  </si>
-  <si>
-    <t>08.07.1988</t>
-  </si>
-  <si>
-    <t>Oliwia Maciejewska</t>
-  </si>
-  <si>
-    <t>28.07.1998</t>
-  </si>
-  <si>
-    <t>Antoni Krawczyk</t>
-  </si>
-  <si>
-    <t>23.10.2004</t>
-  </si>
-  <si>
-    <t>Jan Wiśniewski</t>
-  </si>
-  <si>
-    <t>19.04.1975</t>
-  </si>
-  <si>
-    <t>Lena Borkowska</t>
-  </si>
-  <si>
-    <t>26.10.1999</t>
-  </si>
-  <si>
-    <t>Filip Dąbrowski</t>
-  </si>
-  <si>
-    <t>09.09.1999</t>
-  </si>
-  <si>
-    <t>Szymon Kowalczyk</t>
-  </si>
-  <si>
-    <t>01.01.1986</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalski</t>
-  </si>
-  <si>
-    <t>01.12.1986</t>
-  </si>
-  <si>
-    <t>Natalia Jaworska</t>
-  </si>
-  <si>
-    <t>18.03.2005</t>
-  </si>
-  <si>
-    <t>06.09.1977</t>
+    <t>Aleksander Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Emilia Maciejewska</t>
+  </si>
+  <si>
+    <t>Hanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Anna Kubiak</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Emilia Kubiak</t>
+  </si>
+  <si>
+    <t>Wojciech Wojciechowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Jakub Kaczmarek</t>
+  </si>
+  <si>
+    <t>Jakub Woźniak</t>
+  </si>
+  <si>
+    <t>Jan Mazur</t>
+  </si>
+  <si>
+    <t>Jakub Lewandowski</t>
+  </si>
+  <si>
+    <t>Emilia Urbaniak</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -451,7 +383,64 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>Natalia Sadowska</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Sikorska</t>
+  </si>
+  <si>
+    <t>Lena Wójcik</t>
+  </si>
+  <si>
+    <t>Amelia Lis</t>
+  </si>
+  <si>
+    <t>Szymon Woźniak</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>Mikołaj Kozłowski</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>Lena Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Adam Kozłowski</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maja Piekarska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -505,163 +494,136 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
     <t>luty</t>
   </si>
   <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>dolnośląskie</t>
   </si>
   <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -733,7 +695,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,12 +718,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -792,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -803,13 +759,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1116,7 +1071,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1224,13 +1179,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1242,19 +1197,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
-        <v>6</v>
-      </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1263,19 +1218,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
         <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1284,19 +1239,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1305,19 +1260,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1335,10 +1290,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3">
         <v>5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1347,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>2</v>
@@ -1368,19 +1323,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1389,16 +1344,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
         <v>4</v>
@@ -1413,16 +1368,16 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1431,19 +1386,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
         <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3">
-        <v>6</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1452,16 +1407,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3">
         <v>4</v>
-      </c>
-      <c r="D28" s="3">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1477,6 +1432,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1510,7 +1471,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1530,7 +1491,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1540,29 +1501,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1570,99 +1531,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4.9</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8.6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.3</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.3</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13.3</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.5</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>13.5</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>6.8</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>7</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12.6</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.4</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1679,10 +1640,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,7 +1656,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1720,27 +1681,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1748,85 +1709,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>18.48</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4.36</v>
       </c>
       <c r="C15" s="3">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30.57</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.24</v>
       </c>
       <c r="C16" s="3">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>6.38</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>28.76</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.82</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>9.58</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>8.48</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>27.3</v>
       </c>
       <c r="C19" s="3">
-        <v>44</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1835,8 +1796,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1844,85 +1805,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>25.44</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>28.24</v>
       </c>
       <c r="C24" s="3">
-        <v>46</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1.09</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>22.92</v>
       </c>
       <c r="C25" s="3">
-        <v>23</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>18.010000000000002</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5.7</v>
       </c>
       <c r="C26" s="3">
-        <v>45</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>7.78</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>14.27</v>
       </c>
       <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>11.3</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20.69</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1931,8 +1892,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1940,89 +1901,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>18.55</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>26</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>27.87</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>16.47</v>
       </c>
       <c r="C34" s="3">
-        <v>27</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>26.18</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>11.96</v>
       </c>
       <c r="C35" s="3">
-        <v>35</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>7.19</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>19.13</v>
       </c>
       <c r="C36" s="3">
-        <v>22</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>4.2</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>22.21</v>
       </c>
       <c r="C37" s="3">
-        <v>49</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2042,10 +2011,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2065,111 +2034,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2177,28 +2146,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
-        <v>6</v>
-      </c>
       <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
-      </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2209,28 +2178,28 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2244,28 +2213,28 @@
         <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
         <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2273,22 +2242,22 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
         <v>6</v>
@@ -2297,144 +2266,48 @@
         <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>6</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4</v>
-      </c>
-      <c r="I19" s="3">
-        <v>5</v>
-      </c>
-      <c r="J19" s="3">
-        <v>4</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,10 +2320,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2461,260 +2334,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>97</v>
+      <c r="A1" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7872</v>
+        <v>102</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10042</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3042</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3832</v>
+        <v>104</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11354</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="7">
-        <v>12276</v>
+        <v>105</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2538</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2638</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C15" s="8">
+        <v>9379</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="7">
-        <v>13934</v>
+        <v>107</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10455</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3956</v>
+        <v>108</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13745</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6955</v>
+        <v>109</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C18" s="8">
+        <v>8161</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13965</v>
+        <v>110</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7958</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9201</v>
+        <v>111</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11704</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3545</v>
+        <v>112</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7387</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="7">
-        <v>9428</v>
+        <v>113</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C22" s="8">
+        <v>14318</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="7">
-        <v>7198</v>
+        <v>114</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5805</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="7">
-        <v>7842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="7">
-        <v>9220</v>
+        <v>115</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5096</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="7">
-        <v>14819</v>
-      </c>
+      <c r="A27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="6"/>
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2731,10 +2571,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A49" sqref="A49:B53"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="3">
+        <v>112</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3">
+        <v>195</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="3">
+        <v>145</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="3">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3">
+        <v>142</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="3">
+        <v>123</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>103</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>145</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3">
+        <v>96</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3">
+        <v>112</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="3">
+        <v>145</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3">
+        <v>126</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="3">
+        <v>94</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3">
+        <v>164</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3">
+        <v>184</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3">
+        <v>113</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="3">
+        <v>135</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2749,86 +2809,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>143</v>
+      <c r="A1" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2836,22 +2896,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1371</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1769</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1375</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1540</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2859,22 +2919,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="7">
-        <v>974</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1315</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1066</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1428</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2882,22 +2942,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="7">
-        <v>864</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1045</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="8">
+        <v>872</v>
+      </c>
+      <c r="E18" s="8">
+        <v>985</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2905,22 +2965,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1059</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1186</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1296</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1503</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2931,19 +2991,19 @@
         <v>165</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1097</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1294</v>
+        <v>171</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1044</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1430</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2954,19 +3014,19 @@
         <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1090</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1341</v>
+        <v>169</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1370</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1850</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2974,22 +3034,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1291</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1510</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1126</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1295</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2997,22 +3057,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1036</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1243</v>
+        <v>178</v>
+      </c>
+      <c r="D23" s="8">
+        <v>605</v>
+      </c>
+      <c r="E23" s="8">
+        <v>690</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3020,22 +3080,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1243</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1454</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1033</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1147</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3043,22 +3103,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="8">
+        <v>563</v>
+      </c>
+      <c r="E25" s="8">
+        <v>788</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="7">
-        <v>1316</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1513</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3066,22 +3126,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1178</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1461</v>
+        <v>185</v>
+      </c>
+      <c r="D26" s="8">
+        <v>852</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1031</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3089,22 +3149,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="7">
-        <v>682</v>
-      </c>
-      <c r="E27" s="7">
-        <v>866</v>
+        <v>169</v>
+      </c>
+      <c r="D27" s="8">
+        <v>659</v>
+      </c>
+      <c r="E27" s="8">
+        <v>804</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3112,22 +3172,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1397</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1621</v>
+        <v>187</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1319</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1477</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3135,22 +3195,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D29" s="7">
-        <v>735</v>
-      </c>
-      <c r="E29" s="7">
-        <v>809</v>
+        <v>190</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1428</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1714</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3158,22 +3218,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1404</v>
+        <v>180</v>
+      </c>
+      <c r="D30" s="8">
+        <v>577</v>
+      </c>
+      <c r="E30" s="8">
+        <v>635</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3181,22 +3241,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1306</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1567</v>
+        <v>187</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1315</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1736</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3204,22 +3264,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1126</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1295</v>
+        <v>193</v>
+      </c>
+      <c r="D32" s="8">
+        <v>693</v>
+      </c>
+      <c r="E32" s="8">
+        <v>915</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3227,19 +3287,19 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1288</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1558</v>
+        <v>194</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1073</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1384</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>168</v>
@@ -3250,22 +3310,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1364</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1637</v>
+        <v>158</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1140</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1322</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3273,22 +3333,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1270</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1511</v>
+        <v>185</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1037</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1234</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3296,22 +3356,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1289</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1805</v>
+        <v>185</v>
+      </c>
+      <c r="D36" s="8">
+        <v>933</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1082</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3319,22 +3379,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1343</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1531</v>
+        <v>183</v>
+      </c>
+      <c r="D37" s="8">
+        <v>586</v>
+      </c>
+      <c r="E37" s="8">
+        <v>686</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3342,22 +3402,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="7">
-        <v>622</v>
-      </c>
-      <c r="E38" s="7">
-        <v>740</v>
+        <v>194</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1028</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1141</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3365,22 +3425,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="7">
-        <v>590</v>
-      </c>
-      <c r="E39" s="7">
-        <v>708</v>
+        <v>183</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1199</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1391</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3388,173 +3448,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1365</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1734</v>
+        <v>171</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1321</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1664</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1091</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1407</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="7">
-        <v>875</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1199</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="7">
-        <v>539</v>
-      </c>
-      <c r="E43" s="7">
-        <v>701</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>181</v>
+      <c r="A43" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1286</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1646</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="A44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="7">
-        <v>604</v>
-      </c>
-      <c r="E45" s="7">
-        <v>755</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>214</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>216</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" s="6"/>
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
